--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipos" sheetId="1" r:id="rId4"/>
+    <sheet name="Marcas" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,27 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>lujo</t>
-  </si>
-  <si>
-    <t>moda</t>
-  </si>
-  <si>
-    <t>clasico</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>smart wacht</t>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Rolex</t>
+  </si>
+  <si>
+    <t>Breguet</t>
+  </si>
+  <si>
+    <t>Tudor</t>
+  </si>
+  <si>
+    <t>Panerai</t>
+  </si>
+  <si>
+    <t>Casioo</t>
+  </si>
+  <si>
+    <t>Bell Ross</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -492,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Marcas" sheetId="1" r:id="rId4"/>
+    <sheet name="Relojes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,30 +15,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
     <t>Marca</t>
   </si>
   <si>
+    <t>apple Watch</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>Breguet</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>Bell Ross</t>
+  </si>
+  <si>
+    <t>garmin</t>
+  </si>
+  <si>
+    <t>lujo</t>
+  </si>
+  <si>
     <t>Rolex</t>
   </si>
   <si>
-    <t>Breguet</t>
-  </si>
-  <si>
-    <t>Tudor</t>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>smart wacht</t>
+  </si>
+  <si>
+    <t>Casio</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Infantil</t>
   </si>
   <si>
     <t>Panerai</t>
   </si>
   <si>
-    <t>Casioo</t>
-  </si>
-  <si>
-    <t>Bell Ross</t>
+    <t>patek</t>
   </si>
 </sst>
 </file>
@@ -428,7 +467,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3:B8"/>
@@ -436,66 +475,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>20150</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>18360</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>35820.85</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>20780.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>9320.12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
+      </c>
+      <c r="F8">
+        <v>44780.35</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -32,52 +32,46 @@
     <t>Marca</t>
   </si>
   <si>
-    <t>apple Watch</t>
-  </si>
-  <si>
-    <t>sport</t>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>Bell Ross</t>
+  </si>
+  <si>
+    <t>garmin</t>
+  </si>
+  <si>
+    <t>Paseo</t>
+  </si>
+  <si>
+    <t>Rolex</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>Casio</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>lujoso</t>
+  </si>
+  <si>
+    <t>Panerai</t>
+  </si>
+  <si>
+    <t>patek</t>
   </si>
   <si>
     <t>Breguet</t>
-  </si>
-  <si>
-    <t>omega</t>
-  </si>
-  <si>
-    <t>Moda</t>
-  </si>
-  <si>
-    <t>Bell Ross</t>
-  </si>
-  <si>
-    <t>garmin</t>
-  </si>
-  <si>
-    <t>lujo</t>
-  </si>
-  <si>
-    <t>Rolex</t>
-  </si>
-  <si>
-    <t>fossil</t>
-  </si>
-  <si>
-    <t>smart wacht</t>
-  </si>
-  <si>
-    <t>Casio</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>Infantil</t>
-  </si>
-  <si>
-    <t>Panerai</t>
-  </si>
-  <si>
-    <t>patek</t>
   </si>
 </sst>
 </file>
@@ -114,12 +108,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="33337777"/>
+        <fgColor rgb="33334444"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,6 +136,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -157,12 +162,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -467,10 +475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:B8"/>
+      <selection activeCell="B3" sqref="B3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,121 +490,98 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>20150</v>
+      <c r="F3" s="4">
+        <v>18360</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>18360</v>
+      <c r="F4" s="4">
+        <v>35820.85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
-        <v>35820.85</v>
+      <c r="F5" s="4">
+        <v>20780.8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>20780.8</v>
+      <c r="F6" s="4">
+        <v>9320.12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>9320.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
+      <c r="F7" s="4">
         <v>44780.35</v>
       </c>
     </row>

--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Relojes" sheetId="1" r:id="rId4"/>
+    <sheet name="Ventas" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,63 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
     <t>Reloj</t>
   </si>
   <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
     <t>Precio</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Marca</t>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
   </si>
   <si>
     <t>omega</t>
   </si>
   <si>
-    <t>moda</t>
-  </si>
-  <si>
-    <t>Bell Ross</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>garmin</t>
   </si>
   <si>
-    <t>Paseo</t>
-  </si>
-  <si>
-    <t>Rolex</t>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
   </si>
   <si>
     <t>fossil</t>
   </si>
   <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>Casio</t>
+    <t>2023-10-09</t>
   </si>
   <si>
     <t>tag</t>
-  </si>
-  <si>
-    <t>lujoso</t>
-  </si>
-  <si>
-    <t>Panerai</t>
-  </si>
-  <si>
-    <t>patek</t>
-  </si>
-  <si>
-    <t>Breguet</t>
   </si>
 </sst>
 </file>
@@ -475,15 +463,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3:F7"/>
+      <selection activeCell="B3" sqref="B3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,93 +484,161 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>18360.0</v>
+      </c>
+      <c r="G3" s="4">
+        <f> E3* F3</f>
+        <v>18360</v>
+      </c>
+      <c r="H3">
+        <f> I3* 1.21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>18360.0</v>
+      </c>
+      <c r="G4" s="4">
+        <f> E4* F4</f>
+        <v>36720</v>
+      </c>
+      <c r="H4">
+        <f> I4* 1.21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>35820.85</v>
+      </c>
+      <c r="G5" s="4">
+        <f> E5* F5</f>
+        <v>35820.85</v>
+      </c>
+      <c r="H5">
+        <f> I5* 1.21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>35820.85</v>
+      </c>
+      <c r="G6" s="4">
+        <f> E6* F6</f>
+        <v>35820.85</v>
+      </c>
+      <c r="H6">
+        <f> I6* 1.21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20780.8</v>
+      </c>
+      <c r="G7" s="4">
+        <f> E7* F7</f>
+        <v>20780.8</v>
+      </c>
+      <c r="H7">
+        <f> I7* 1.21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4">
-        <v>18360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>35820.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4">
-        <v>20780.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>9320.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4">
-        <v>44780.35</v>
+      <c r="G8" s="4">
+        <f> E8* F8</f>
+        <v>9320.12</v>
+      </c>
+      <c r="H8">
+        <f> I8* 1.21</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Ventas" sheetId="1" r:id="rId4"/>
+    <sheet name="Relojes" sheetId="1" r:id="rId4"/>
+    <sheet name="Tipos" sheetId="2" r:id="rId5"/>
+    <sheet name="Marcas 1" sheetId="3" r:id="rId6"/>
+    <sheet name="Ventas" sheetId="4" r:id="rId7"/>
+    <sheet name="Marcas" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,51 +19,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Reloj</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>apple Watch</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>Breguet</t>
   </si>
   <si>
     <t>omega</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>Bell Ross</t>
   </si>
   <si>
     <t>garmin</t>
   </si>
   <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
+    <t>lujo</t>
+  </si>
+  <si>
+    <t>Rolex</t>
   </si>
   <si>
     <t>fossil</t>
   </si>
   <si>
-    <t>2023-10-09</t>
+    <t>smart wacht</t>
+  </si>
+  <si>
+    <t>Casio</t>
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>Infantil</t>
+  </si>
+  <si>
+    <t>Panerai</t>
+  </si>
+  <si>
+    <t>patek</t>
+  </si>
+  <si>
+    <t>clasico</t>
+  </si>
+  <si>
+    <t>Tudor</t>
   </si>
 </sst>
 </file>
@@ -463,15 +491,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3:G8"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B3" sqref="B3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,161 +512,336 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
       <c r="F3" s="4">
-        <v>18360.0</v>
-      </c>
-      <c r="G3" s="4">
-        <f> E3* F3</f>
-        <v>18360</v>
-      </c>
-      <c r="H3">
-        <f> I3* 1.21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>18360.0</v>
-      </c>
-      <c r="G4" s="4">
-        <f> E4* F4</f>
-        <v>36720</v>
-      </c>
-      <c r="H4">
-        <f> I4* 1.21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="4">
         <v>35820.85</v>
       </c>
-      <c r="G5" s="4">
-        <f> E5* F5</f>
-        <v>35820.85</v>
-      </c>
-      <c r="H5">
-        <f> I5* 1.21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>35820.85</v>
-      </c>
-      <c r="G6" s="4">
-        <f> E6* F6</f>
-        <v>35820.85</v>
-      </c>
-      <c r="H6">
-        <f> I6* 1.21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20780.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="4">
-        <v>20780.8</v>
-      </c>
-      <c r="G7" s="4">
-        <f> E7* F7</f>
-        <v>20780.8</v>
-      </c>
-      <c r="H7">
-        <f> I7* 1.21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>9320.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44780.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B3" sqref="B3:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B3" sqref="B3:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>9320.12</v>
-      </c>
-      <c r="G8" s="4">
-        <f> E8* F8</f>
-        <v>9320.12</v>
-      </c>
-      <c r="H8">
-        <f> I8* 1.21</f>
-        <v>0</v>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -38,46 +38,55 @@
     <t>sport</t>
   </si>
   <si>
+    <t>Tudor</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>Bell Ross</t>
+  </si>
+  <si>
+    <t>garmin</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>Rolex</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>Casio</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>lujo</t>
+  </si>
+  <si>
+    <t>Panerai</t>
+  </si>
+  <si>
+    <t>patek</t>
+  </si>
+  <si>
     <t>Breguet</t>
   </si>
   <si>
-    <t>omega</t>
-  </si>
-  <si>
-    <t>Moda</t>
-  </si>
-  <si>
-    <t>Bell Ross</t>
-  </si>
-  <si>
-    <t>garmin</t>
-  </si>
-  <si>
-    <t>lujo</t>
-  </si>
-  <si>
-    <t>Rolex</t>
-  </si>
-  <si>
-    <t>fossil</t>
-  </si>
-  <si>
-    <t>smart wacht</t>
-  </si>
-  <si>
-    <t>Casio</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>Infantil</t>
-  </si>
-  <si>
-    <t>Panerai</t>
-  </si>
-  <si>
-    <t>patek</t>
+    <t>pam 01423</t>
+  </si>
+  <si>
+    <t>clasico</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3:B8"/>
@@ -594,10 +603,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>44780.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>27967</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Relojes" sheetId="1" r:id="rId4"/>
+    <sheet name="Ventas" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,78 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
     <t>Reloj</t>
   </si>
   <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
     <t>Precio</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>apple Watch</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>Tudor</t>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
   </si>
   <si>
     <t>omega</t>
   </si>
   <si>
-    <t>moda</t>
-  </si>
-  <si>
-    <t>Bell Ross</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>garmin</t>
   </si>
   <si>
-    <t>casual</t>
-  </si>
-  <si>
-    <t>Rolex</t>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
   </si>
   <si>
     <t>fossil</t>
   </si>
   <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>Casio</t>
+    <t>2023-10-09</t>
   </si>
   <si>
     <t>tag</t>
-  </si>
-  <si>
-    <t>lujo</t>
-  </si>
-  <si>
-    <t>Panerai</t>
-  </si>
-  <si>
-    <t>patek</t>
-  </si>
-  <si>
-    <t>Breguet</t>
-  </si>
-  <si>
-    <t>pam 01423</t>
-  </si>
-  <si>
-    <t>clasico</t>
   </si>
 </sst>
 </file>
@@ -123,12 +96,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="33337777"/>
+        <fgColor rgb="33334444"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,6 +124,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -166,12 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -476,154 +463,182 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:B8"/>
+      <selection activeCell="B3" sqref="B3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3">
+    <row r="3" spans="1:8">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>18360.0</v>
+      </c>
+      <c r="G3" s="4">
+        <f> E3 * F3</f>
+        <v>18360</v>
+      </c>
+      <c r="H3">
+        <f> G3* 1.21</f>
+        <v>22215.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>18360.0</v>
+      </c>
+      <c r="G4" s="4">
+        <f> E4 * F4</f>
+        <v>36720</v>
+      </c>
+      <c r="H4">
+        <f> G4* 1.21</f>
+        <v>44431.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>35820.85</v>
+      </c>
+      <c r="G5" s="4">
+        <f> E5 * F5</f>
+        <v>35820.85</v>
+      </c>
+      <c r="H5">
+        <f> G5* 1.21</f>
+        <v>43343.2285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>35820.85</v>
+      </c>
+      <c r="G6" s="4">
+        <f> E6 * F6</f>
+        <v>35820.85</v>
+      </c>
+      <c r="H6">
+        <f> G6* 1.21</f>
+        <v>43343.2285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20780.8</v>
+      </c>
+      <c r="G7" s="4">
+        <f> E7 * F7</f>
+        <v>20780.8</v>
+      </c>
+      <c r="H7">
+        <f> G7* 1.21</f>
+        <v>25144.768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>20150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>18360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
-        <v>35820.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>20780.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>9320.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>44780.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>27967</v>
+      <c r="G8" s="4">
+        <f> E8 * F8</f>
+        <v>9320.12</v>
+      </c>
+      <c r="H8">
+        <f> G8* 1.21</f>
+        <v>11277.3452</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/Relojes.xlsx
+++ b/Archivos/Relojes.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Ventas" sheetId="1" r:id="rId4"/>
+    <sheet name="Relojes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,51 +15,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Reloj</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>apple Watch</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>Tudor</t>
   </si>
   <si>
     <t>omega</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>Bell Ross</t>
   </si>
   <si>
     <t>garmin</t>
   </si>
   <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>Rolex</t>
   </si>
   <si>
     <t>fossil</t>
   </si>
   <si>
-    <t>2023-10-09</t>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>Casio</t>
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>lujo</t>
+  </si>
+  <si>
+    <t>Panerai</t>
+  </si>
+  <si>
+    <t>patek</t>
+  </si>
+  <si>
+    <t>Breguet</t>
   </si>
 </sst>
 </file>
@@ -463,15 +484,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3:G8"/>
+      <selection activeCell="B3" sqref="B3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,161 +505,110 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
       <c r="F3" s="4">
-        <v>18360.0</v>
-      </c>
-      <c r="G3" s="4">
-        <f> E3 * F3</f>
-        <v>18360</v>
-      </c>
-      <c r="H3">
-        <f> G3* 1.21</f>
-        <v>22215.6</v>
+        <v>20150</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>18360.0</v>
-      </c>
-      <c r="G4" s="4">
-        <f> E4 * F4</f>
-        <v>36720</v>
-      </c>
-      <c r="H4">
-        <f> G4* 1.21</f>
-        <v>44431.2</v>
+        <v>18360</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="4">
         <v>35820.85</v>
       </c>
-      <c r="G5" s="4">
-        <f> E5 * F5</f>
-        <v>35820.85</v>
-      </c>
-      <c r="H5">
-        <f> G5* 1.21</f>
-        <v>43343.2285</v>
-      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>35820.85</v>
-      </c>
-      <c r="G6" s="4">
-        <f> E6 * F6</f>
-        <v>35820.85</v>
-      </c>
-      <c r="H6">
-        <f> G6* 1.21</f>
-        <v>43343.2285</v>
+        <v>20780.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="4">
-        <v>20780.8</v>
-      </c>
-      <c r="G7" s="4">
-        <f> E7 * F7</f>
-        <v>20780.8</v>
-      </c>
-      <c r="H7">
-        <f> G7* 1.21</f>
-        <v>25144.768</v>
+        <v>9320.12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="4">
-        <v>9320.12</v>
-      </c>
-      <c r="G8" s="4">
-        <f> E8 * F8</f>
-        <v>9320.12</v>
-      </c>
-      <c r="H8">
-        <f> G8* 1.21</f>
-        <v>11277.3452</v>
+        <v>44780.35</v>
       </c>
     </row>
   </sheetData>
